--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_148.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_148.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1238738738738739</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:19.360000', '0:00:22.380000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_77</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:17.180000', '0:00:39.300000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:20.040000', '0:00:23.450000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>[['G', 'C', 'G/3', 'A:min7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.18, 21.14)]</t>
+          <t>[['C:maj', 'F/5', 'C:maj', 'D:min7/b7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(45.58, 53.44)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:18.826145', '0:00:27.476822')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:10.619000', '0:00:18.817000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2642857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D', 'G', 'D'], ['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(72.52, 83.28), (16.02, 22.5)]</t>
+          <t>[['A', 'D', 'A'], ['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(63.24, 64.62), (61.6, 63.84)]</t>
+          <t>[('0:00:46.932280', '0:00:54.037586'), ('0:00:11.219991', '0:00:14.772644')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:40.490000', '0:00:47.860000'), ('0:00:04.605000', '0:00:13.840000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05392545598731166</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'G', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.808, 36.091)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.557446, 6.319079)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:19.400000', '0:00:44.180000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:12.680000', '0:00:20.200000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.74, 16.3)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(88.76, 98.3)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:17.680000', '0:01:26.540000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1046910755148741</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3517156862745098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.083177)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:10.460000', '0:00:15.100000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98), (16.26, 19.34)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92), (10.36, 18.44)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42)]</t>
+          <t>[('0:01:13.320000', '0:01:21.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1597542242703533</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Ab:7', 'Db']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(70.32, 84.54)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(93.75, 97.74)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1237373737373737</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:min', 'E:min/b3', 'A:min/b3']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F#:min', 'F#:min', 'B:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(76.086553, 79.347701)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(38.578071, 42.072674)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E', 'A']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(42.34, 45.16)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.509, 13.84)]</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(62.28, 64.32)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(66.88, 74.94)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1131782945736434</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'A', 'E']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(65.706, 71.624)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(24.224784, 30.749591)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_196</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3819444444444445</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.6, 11.32)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.7, 25.02)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
